--- a/Docs/Sensor_Module_BOM.xlsx
+++ b/Docs/Sensor_Module_BOM.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive - University of Cape Town\University\Third Year\EEE3088F PROJ\WEEKLY ASS'S\WEEK 3 - DESIGN PROP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1928958-6136-4204-B059-868B24A5AADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75156075-0AB7-4B11-9673-B902F020C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Module" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>MANUFACTURER PART NO.</t>
   </si>
@@ -247,13 +260,7 @@
     <t>One Board</t>
   </si>
   <si>
-    <t xml:space="preserve"> $4.73 </t>
-  </si>
-  <si>
     <t>Five Boards</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $23.63 </t>
   </si>
   <si>
     <t>HAT TOTALS</t>
@@ -280,9 +287,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -820,7 +828,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -838,17 +846,21 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1208,11 +1220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,6 +1309,7 @@
         <v>0.02</v>
       </c>
       <c r="K2" s="3">
+        <f>J2+B2*3</f>
         <v>0.02</v>
       </c>
     </row>
@@ -1332,6 +1345,7 @@
         <v>0.03</v>
       </c>
       <c r="K3" s="3">
+        <f t="shared" ref="K3:K18" si="0">J3+B3*3</f>
         <v>0.03</v>
       </c>
     </row>
@@ -1367,6 +1381,7 @@
         <v>0.02</v>
       </c>
       <c r="K4" s="3">
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
@@ -1402,6 +1417,7 @@
         <v>0.44</v>
       </c>
       <c r="K5" s="3">
+        <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
     </row>
@@ -1437,6 +1453,7 @@
         <v>0.03</v>
       </c>
       <c r="K6" s="3">
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
@@ -1472,6 +1489,7 @@
         <v>0.06</v>
       </c>
       <c r="K7" s="3">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
@@ -1507,7 +1525,8 @@
         <v>0.81</v>
       </c>
       <c r="K8" s="3">
-        <v>5.81</v>
+        <f t="shared" si="0"/>
+        <v>3.81</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1542,6 +1561,7 @@
         <v>0.04</v>
       </c>
       <c r="K9" s="3">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
@@ -1577,6 +1597,7 @@
         <v>0.02</v>
       </c>
       <c r="K10" s="3">
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
@@ -1612,6 +1633,7 @@
         <v>0.01</v>
       </c>
       <c r="K11" s="3">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -1647,6 +1669,7 @@
         <v>0.02</v>
       </c>
       <c r="K12" s="3">
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
@@ -1682,6 +1705,7 @@
         <v>0.01</v>
       </c>
       <c r="K13" s="3">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -1717,6 +1741,7 @@
         <v>0.01</v>
       </c>
       <c r="K14" s="3">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -1752,6 +1777,7 @@
         <v>0.01</v>
       </c>
       <c r="K15" s="3">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
@@ -1787,7 +1813,8 @@
         <v>9.86</v>
       </c>
       <c r="K16" s="3">
-        <v>14.86</v>
+        <f t="shared" si="0"/>
+        <v>12.86</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1822,6 +1849,7 @@
         <v>1.3</v>
       </c>
       <c r="K17" s="3">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -1857,6 +1885,7 @@
         <v>0.94</v>
       </c>
       <c r="K18" s="3">
+        <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
     </row>
@@ -1866,68 +1895,71 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>75</v>
+      <c r="B22" s="12">
+        <f>B23/5</f>
+        <v>3.9259999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="12">
+        <f>SUM(K2:K18)</f>
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="B26" s="12">
+        <f>B23</f>
+        <v>19.63</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="A28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <f>SUM(B26:B29)</f>
-        <v>0</v>
+        <v>19.63</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Sensor_Module_BOM.xlsx
+++ b/Docs/Sensor_Module_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75156075-0AB7-4B11-9673-B902F020C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A6B14-18BC-423E-877D-C448F389C532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>MANUFACTURER PART NO.</t>
   </si>
@@ -251,9 +251,6 @@
     <t>LM317AG</t>
   </si>
   <si>
-    <t>"Each extended component that is placed by JLCPCB adds an extra 3$"</t>
-  </si>
-  <si>
     <t>SENSOR MODULE TOTALS</t>
   </si>
   <si>
@@ -278,10 +275,10 @@
     <t>Manufactoring</t>
   </si>
   <si>
-    <t xml:space="preserve"> $12.00 </t>
-  </si>
-  <si>
     <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>"Each extended component adds an extra 3$"</t>
   </si>
 </sst>
 </file>
@@ -290,7 +287,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -850,16 +847,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1223,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,77 +1886,81 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="K19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="12">
+        <v>73</v>
+      </c>
+      <c r="B22" s="9">
         <f>B23/5</f>
         <v>3.9259999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="12">
+        <v>74</v>
+      </c>
+      <c r="B23" s="9">
         <f>SUM(K2:K18)</f>
         <v>19.63</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="12">
+        <v>76</v>
+      </c>
+      <c r="B26" s="9">
         <f>B23</f>
         <v>19.63</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="B27" s="9">
+        <v>13.83</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="B28" s="9">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="B29" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="9">
+        <v>80</v>
+      </c>
+      <c r="B30" s="11">
         <f>SUM(B26:B29)</f>
-        <v>19.63</v>
+        <v>69.460000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Sensor_Module_BOM.xlsx
+++ b/Docs/Sensor_Module_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A6B14-18BC-423E-877D-C448F389C532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07FB362-B8A9-4CF5-9FFF-27A8AAAA2B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="11880" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>MANUFACTURER PART NO.</t>
   </si>
@@ -96,54 +96,6 @@
   </si>
   <si>
     <t>0.1u</t>
-  </si>
-  <si>
-    <t>TAJA106K016RNJ</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/KyoceraAvx-TAJA106K016RNJ/C7171</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Hubei_KentoElec-KT0603R/C2286</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Red LED</t>
-  </si>
-  <si>
-    <t>C2290</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Hubei_KentoElec-C2290/C2290</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>White LED</t>
-  </si>
-  <si>
-    <t>B4013AM423-093</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Goertek-B4013AM423093/C233790</t>
-  </si>
-  <si>
-    <t>MK1</t>
-  </si>
-  <si>
-    <t>Condensor Mic</t>
   </si>
   <si>
     <t>0805W8F4702T5E</t>
@@ -289,7 +241,7 @@
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +376,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +747,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -824,8 +790,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -858,8 +825,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -893,6 +865,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1218,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1315,7 @@
         <v>0.03</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K18" si="0">J3+B3*3</f>
+        <f t="shared" ref="K3:K17" si="0">J3+B3*3</f>
         <v>0.03</v>
       </c>
     </row>
@@ -1383,305 +1356,236 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3">
-        <v>0.16200000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="I8" s="3">
-        <v>0.16200000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J8" s="3">
-        <v>0.81</v>
+        <v>0.04</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>3.81</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="15">
         <v>2E-3</v>
       </c>
-      <c r="I9" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.04</v>
+      <c r="I9" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.02</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
       </c>
       <c r="E10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>150</v>
       </c>
       <c r="H10" s="3">
         <v>2E-3</v>
       </c>
       <c r="I10" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J10" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="3">
-        <v>2E-3</v>
+        <v>1.3333329999999999E-3</v>
       </c>
       <c r="I11" s="3">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J11" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3">
-        <v>1.3333329999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I12" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J12" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1690,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3">
         <v>2E-3</v>
@@ -1708,16 +1612,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1726,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3">
         <v>2E-3</v>
@@ -1744,16 +1648,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="6">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1762,34 +1666,34 @@
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3">
-        <v>2E-3</v>
+        <v>1.972</v>
       </c>
       <c r="I15" s="3">
-        <v>2E-3</v>
+        <v>1.972</v>
       </c>
       <c r="J15" s="3">
-        <v>0.01</v>
+        <v>9.86</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1798,34 +1702,34 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3">
-        <v>1.972</v>
+        <v>0.26</v>
       </c>
       <c r="I16" s="3">
-        <v>1.972</v>
+        <v>0.26</v>
       </c>
       <c r="J16" s="3">
-        <v>9.86</v>
+        <v>1.3</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="0"/>
-        <v>12.86</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>66</v>
+      <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1834,141 +1738,109 @@
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3">
-        <v>0.26</v>
+        <v>0.188</v>
       </c>
       <c r="I17" s="3">
-        <v>0.26</v>
+        <v>0.188</v>
       </c>
       <c r="J17" s="3">
-        <v>1.3</v>
+        <v>0.94</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="J18" s="3">
         <v>0.94</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="K19" s="2" t="s">
-        <v>81</v>
-      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="13"/>
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="9">
+        <f>B22/5</f>
+        <v>3.0579999999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9">
-        <f>B23/5</f>
-        <v>3.9259999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <f>SUM(K2:K18)</f>
-        <v>19.63</v>
-      </c>
+        <f>SUM(K2:K17)</f>
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="13"/>
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="9">
+        <f>B22</f>
+        <v>15.29</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B26" s="9">
-        <f>B23</f>
-        <v>19.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="9">
-        <v>13.83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9">
         <v>24</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="10">
+        <v>12</v>
+      </c>
+    </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="11">
-        <f>SUM(B26:B29)</f>
-        <v>69.460000000000008</v>
+      <c r="A29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="11">
+        <f>SUM(B25:B28)</f>
+        <v>65.12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{2F297B1A-0C73-4453-9F8E-ED448648804E}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{62ED16CD-4722-4F09-9D80-98FC258B8B0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Docs/Sensor_Module_BOM.xlsx
+++ b/Docs/Sensor_Module_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07FB362-B8A9-4CF5-9FFF-27A8AAAA2B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C60F1-C432-4B5E-81DE-E47A54910CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="11880" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>MANUFACTURER PART NO.</t>
   </si>
@@ -68,129 +68,24 @@
     <t>PRICE FIVE BOARDS EXTENDED ($)</t>
   </si>
   <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/1877-CL05B104KO5NNNC/C1525</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>CL05A475MP5NRNC</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/24469-CL05A475MP5NRNC/C23733</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>4.7u</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>0.1u</t>
   </si>
   <si>
-    <t>0805W8F4702T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18401-0805W8F4702T5E/C17713</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
     <t>0805W8F1003T5E</t>
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/160838-0805W8F1003T5E/C149504</t>
   </si>
   <si>
-    <t>R5, R10</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
-    <t>0805W8F1500T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18159-0805W8F1500T5E/C17471</t>
-  </si>
-  <si>
-    <t>0805W8F1002T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18102-0805W8F1002T5E/C17414</t>
-  </si>
-  <si>
-    <t>R7, R8, RV1</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>0603WAF1101T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/23491-0603WAF1101T5E/C22764</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>0805W8F1502T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18163-0805W8F1502T5E/C17475</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>0805W8F1202T5E</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/18132-0805W8F1202T5E/C17444</t>
-  </si>
-  <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>VL6180V1NR/1</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Stmicroelectronics-VL6180V1NR1/C2655167</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>VL6180</t>
-  </si>
-  <si>
-    <t>LM393DR2G</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Onsemi-LM393DR2G/C7955</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LM393</t>
-  </si>
-  <si>
     <t>LM317AG-TN3-R</t>
   </si>
   <si>
@@ -230,7 +125,103 @@
     <t>GRAND TOTAL</t>
   </si>
   <si>
-    <t>"Each extended component adds an extra 3$"</t>
+    <t>https://jlcpcb.com/partdetail/29074-CL21B105KBFNNNE/C28323</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>JLCPCB PART NUM</t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3</t>
+  </si>
+  <si>
+    <t>R1, R2, R7, R8, R9, R10, R11, R12, R17, R18, R19, R22</t>
+  </si>
+  <si>
+    <t>C2, C3, C4</t>
+  </si>
+  <si>
+    <t>R20, R21</t>
+  </si>
+  <si>
+    <t>0805W8F1201T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/18067-0805W8F1201T5E/C17379</t>
+  </si>
+  <si>
+    <t>0805W8F1501T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/4717-0805W8F1501T5E/C4310</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Fuxinsemi-BSS123/C784617</t>
+  </si>
+  <si>
+    <t>BSS123</t>
+  </si>
+  <si>
+    <t>0805W8F0000T5E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/18165-0805W8F0000T5E/C17477</t>
+  </si>
+  <si>
+    <t>0k</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Yageo-CC0805KRX7R9BB104/C49678</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C149504</t>
+  </si>
+  <si>
+    <t>C4310</t>
+  </si>
+  <si>
+    <t>C17379</t>
+  </si>
+  <si>
+    <t>VCNL36821S</t>
+  </si>
+  <si>
+    <t>C1850419</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/VishayIntertech-VCNL36821S/C1850419</t>
+  </si>
+  <si>
+    <t>PROX SENSOR</t>
+  </si>
+  <si>
+    <t>C75510</t>
+  </si>
+  <si>
+    <t>C784617</t>
+  </si>
+  <si>
+    <t>C17477</t>
   </si>
 </sst>
 </file>
@@ -241,7 +232,7 @@
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +375,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,12 +585,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8181"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,23 +791,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -825,11 +815,20 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1191,656 +1190,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <f>G2*5</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J2" s="12">
+        <f>I2*G2</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="K2" s="12">
+        <f>I2*H2</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="L2" s="12">
+        <f>K2+3*C2</f>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H10" si="0">G3*5</f>
+        <v>15</v>
+      </c>
+      <c r="I3" s="18">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J10" si="1">I3*G3</f>
+        <v>2.8499999999999998E-2</v>
+      </c>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K10" si="2">I3*H3</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" ref="L3:L10" si="3">K3+3*C3</f>
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" si="3"/>
+        <v>1.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="14">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="14">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="K2" s="3">
-        <f>J2+B2*3</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I6" s="18">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.4859</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.4859</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4295</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="3"/>
+        <v>5.4295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="2"/>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="16">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B3" s="3">
+      <c r="I9" s="18">
+        <v>1.67E-2</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2505</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="3"/>
+        <v>3.2505000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K17" si="0">J3+B3*3</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="2"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="B13" s="6">
+        <f>B14/5</f>
+        <v>1.9896999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="B14" s="6">
+        <f>SUM(L2:L10)</f>
+        <v>9.9484999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B17" s="6">
+        <f>B14</f>
+        <v>9.9484999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="B18" s="6">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-      <c r="F9" s="15">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B19" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="15">
-        <v>2E-3</v>
-      </c>
-      <c r="I9" s="15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>150</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.3333329999999999E-3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1.972</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1.972</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9.86</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="0"/>
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.188</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="K18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="9">
-        <f>B22/5</f>
-        <v>3.0579999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="9">
-        <f>SUM(K2:K17)</f>
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="9">
-        <f>B22</f>
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="9">
-        <v>13.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="11">
-        <f>SUM(B25:B28)</f>
-        <v>65.12</v>
+      <c r="B21" s="8">
+        <f>SUM(B17:B20)</f>
+        <v>59.778500000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{2F297B1A-0C73-4453-9F8E-ED448648804E}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{62ED16CD-4722-4F09-9D80-98FC258B8B0A}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{2F297B1A-0C73-4453-9F8E-ED448648804E}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{62ED16CD-4722-4F09-9D80-98FC258B8B0A}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{282154AB-C621-4551-BD73-DBBE92E817AF}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{60BC1EFB-0EA7-42A0-B4EC-973B3D127D78}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{25083DA5-2C27-422B-A7AB-6D19226DD270}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{AFFE0948-E984-4B75-8D29-B617396C5ED4}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{5BAEF2B6-35CD-4F84-ADC9-6D8100AE9419}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{0EFD3078-66F1-45EA-AB51-35ED823DECF6}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{88CAB1FC-83D8-45F0-A084-61E5A4F81BB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>